--- a/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Biobio.xlsx
+++ b/datos de economia/Datos_crudos_1/Ind_finan_Saldos_Biobio.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="Microsoft Office Excel"/>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="R7ec75b8cb727426c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cuadro" sheetId="1" r:id="Raaac4c30d70643a0"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -234,6 +234,1926 @@
     </x:row>
     <x:row r="4">
       <x:c s="5" t="d">
+        <x:v>2013-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>200145</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1600730.4163731</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>878</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5189059.6378132</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>76448.38089</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c s="5" t="d">
+        <x:v>2013-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>200698</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1607134.1564838</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>879</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5160819.8907849</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>77837.285107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6">
+      <x:c s="5" t="d">
+        <x:v>2013-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>201884</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1634087.9784381</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>880</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5455956.3818181</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>81732.06948</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7">
+      <x:c s="5" t="d">
+        <x:v>2013-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>203502</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1570816.7423416</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>881</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5540143.9194097</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>79430.523965</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8">
+      <x:c s="5" t="d">
+        <x:v>2013-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>204633</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1605423.0940464</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>882</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5902260.1814058</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>86805.94658</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9">
+      <x:c s="5" t="d">
+        <x:v>2013-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>205701</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1659787.0482302</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>883</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>5818258.5107587</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>90883.578464</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10">
+      <x:c s="5" t="d">
+        <x:v>2013-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>207032</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1609543.8210421</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>882</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6099023.5045351</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>83372.658832</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11">
+      <x:c s="5" t="d">
+        <x:v>2013-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>208330</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1574577.6217443</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>884</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6223277.4739819</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>88162.918946</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12">
+      <x:c s="5" t="d">
+        <x:v>2013-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>209329</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1634913.6929331</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>886</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7020854.523702</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>84465.719793</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13">
+      <x:c s="5" t="d">
+        <x:v>2013-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>210684</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1572788.1992937</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>886</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7525900.7234763</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>92377.168747</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14">
+      <x:c s="5" t="d">
+        <x:v>2013-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>211830</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1553757.7152244</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>888</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7086650.206081</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>94159.503984</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15">
+      <x:c s="5" t="d">
+        <x:v>2013-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>212898</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1599133.2140508</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>896</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6242923.6272321</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>97295.52222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c s="5" t="d">
+        <x:v>2014-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>213770</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1603022.2629227</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>918</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6204179.7570806</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>101112.067085</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c s="5" t="d">
+        <x:v>2014-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>214242</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1641658.5471476</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>944</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6253119.838983</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>100976.573012</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c s="5" t="d">
+        <x:v>2014-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>215587</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1624072.4328368</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>957</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6311843.9164054</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>91668.51487</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c s="5" t="d">
+        <x:v>2014-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>216931</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1616218.5598877</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>959</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>6663109.2408759</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103058.180235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c s="5" t="d">
+        <x:v>2014-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>221038</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1627533.80711</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>964</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7684581.5238589</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110720.129978</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c s="5" t="d">
+        <x:v>2014-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>222676</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1663219.5973252</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>968</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8474305.4638429</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103098.422914</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c s="5" t="d">
+        <x:v>2014-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>224548</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1619017.3498583</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>970</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8480407.3494845</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>103975.737005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c s="5" t="d">
+        <x:v>2014-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>225780</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1592654.9152626</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>971</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8629641.7033985</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108753.930996</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c s="5" t="d">
+        <x:v>2014-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>227252</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1602485.6264895</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>930</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9381599.5559139</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>108209.559533</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25">
+      <x:c s="5" t="d">
+        <x:v>2014-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>228543</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1587080.0688404</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>923</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8958291.4864572</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>110503.007165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26">
+      <x:c s="5" t="d">
+        <x:v>2014-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>230053</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1603539.0162006</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>928</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9409979.1971982</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>113626.804799</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27">
+      <x:c s="5" t="d">
+        <x:v>2014-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>231336</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1683611.3122514</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>936</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9855885.9081196</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>124187.900597</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28">
+      <x:c s="5" t="d">
+        <x:v>2015-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>232239</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1712226.7241936</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>942</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9665863.9341825</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>125706.952259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29">
+      <x:c s="5" t="d">
+        <x:v>2015-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>232684</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1772165.1551245</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>941</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9550561.3134962</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>125792.583575</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30">
+      <x:c s="5" t="d">
+        <x:v>2015-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>234379</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1754706.3557144</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>946</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9960471.0443974</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>120690.482038</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31">
+      <x:c s="5" t="d">
+        <x:v>2015-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>236255</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1732127.2005756</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>953</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10257069.411332</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>122794.979385</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32">
+      <x:c s="5" t="d">
+        <x:v>2015-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>237626</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1769489.1775268</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>956</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11085147.008368</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>130748.752076</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33">
+      <x:c s="5" t="d">
+        <x:v>2015-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>239214</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1791790.649778</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>958</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11329897.820459</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>124820.747246</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34">
+      <x:c s="5" t="d">
+        <x:v>2015-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>240799</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1757372.001686</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>959</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11342972.372262</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>129939.984047</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35">
+      <x:c s="5" t="d">
+        <x:v>2015-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>243085</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1727665.1872225</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>955</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11564171.291099</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>123995.728122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36">
+      <x:c s="5" t="d">
+        <x:v>2015-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>244375</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1747347.7966731</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>959</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10895452.116788</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>134632.257406</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37">
+      <x:c s="5" t="d">
+        <x:v>2015-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>245976</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1742350.5594854</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>962</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10370521.889812</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>136682.263367</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38">
+      <x:c s="5" t="d">
+        <x:v>2015-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>247585</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1739259.1822929</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>971</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10697778.3069</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>129844.794629</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39">
+      <x:c s="5" t="d">
+        <x:v>2015-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>248440</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1759825.5429359</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>977</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11219810.727738</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>149575.532945</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40">
+      <x:c s="5" t="d">
+        <x:v>2016-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>249355</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1824729.1669427</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>986</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11952533.212981</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>152905.02195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41">
+      <x:c s="5" t="d">
+        <x:v>2016-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>250259</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1841559.3417899</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>991</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12483258.809283</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>141338.566225</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42">
+      <x:c s="5" t="d">
+        <x:v>2016-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>251615</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1816415.2953758</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>992</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12990093.971774</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>146435.600052</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43">
+      <x:c s="5" t="d">
+        <x:v>2016-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>252990</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1790506.5044428</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>995</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14171852.068341</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>154955.928517</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44">
+      <x:c s="5" t="d">
+        <x:v>2016-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>254349</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1822775.7756271</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1001</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14822083.761238</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>159467.047038</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45">
+      <x:c s="5" t="d">
+        <x:v>2016-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>256211</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1837933.3950923</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1014</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13237437.455621</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>161618.071544</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46">
+      <x:c s="5" t="d">
+        <x:v>2016-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>257825</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1801417.0881954</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1017</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14131620.217305</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>162157.871812</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47">
+      <x:c s="5" t="d">
+        <x:v>2016-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>259495</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1759443.5542226</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1022</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>14596261.099804</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>158230.462694</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48">
+      <x:c s="5" t="d">
+        <x:v>2016-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>260760</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1785313.7997507</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1030</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13754383.238835</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>166373.073937</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49">
+      <x:c s="5" t="d">
+        <x:v>2016-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>261945</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1779142.4872435</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1034</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13566125.407156</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>168056.032738</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50">
+      <x:c s="5" t="d">
+        <x:v>2016-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>263204</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1748392.4016884</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1041</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13698541.523535</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>160787.686193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51">
+      <x:c s="5" t="d">
+        <x:v>2016-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>264289</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1800650.552119</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1045</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13920904.137799</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>180878.135454</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52">
+      <x:c s="5" t="d">
+        <x:v>2017-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>265431</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1825108.2355</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1048</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13758240.673664</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>173642.770058</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53">
+      <x:c s="5" t="d">
+        <x:v>2017-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>266213</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1822333.1999451</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1052</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13920984.593155</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>172325.661617</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54">
+      <x:c s="5" t="d">
+        <x:v>2017-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>268199</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1803833.5760759</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1052</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13633527.949619</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>174155.450028</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55">
+      <x:c s="5" t="d">
+        <x:v>2017-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>269666</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1818749.2383652</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1053</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13490688.765432</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>184256.865743</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56">
+      <x:c s="5" t="d">
+        <x:v>2017-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>271462</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1837340.5183819</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1055</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13422637.75071</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>188285.153328</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57">
+      <x:c s="5" t="d">
+        <x:v>2017-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>273094</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1752349.3859074</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1060</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13553420.878301</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>198577.971861</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58">
+      <x:c s="5" t="d">
+        <x:v>2017-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>274678</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1798921.1465097</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1078</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13390365.470315</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>186351.07385</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59">
+      <x:c s="5" t="d">
+        <x:v>2017-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>276350</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1779322.1878089</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1100</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13461575.895454</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>197432.153855</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60">
+      <x:c s="5" t="d">
+        <x:v>2017-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>277568</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1802725.2023396</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1126</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>13183850.738898</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>207863.559649</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61">
+      <x:c s="5" t="d">
+        <x:v>2017-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>279196</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1740156.9152924</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1147</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12630624.732345</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>199146.776332</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62">
+      <x:c s="5" t="d">
+        <x:v>2017-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>280706</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1726933.5880921</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1162</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12340216.580034</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>208468.26918</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63">
+      <x:c s="5" t="d">
+        <x:v>2017-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>282216</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1817907.8706806</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1179</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11306040.049194</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>229648.571997</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64">
+      <x:c s="5" t="d">
+        <x:v>2018-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>283620</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1815126.5299344</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1201</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11054617.39134</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>219718.421691</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65">
+      <x:c s="5" t="d">
+        <x:v>2018-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>284407</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1851337.0416515</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1213</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11074038.262159</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>220371.64985</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66">
+      <x:c s="5" t="d">
+        <x:v>2018-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>286345</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1843753.1631423</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1229</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11211583.578519</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>231422.918511</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67">
+      <x:c s="5" t="d">
+        <x:v>2018-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>287941</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1817285.118625</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1235</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11552663.914979</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>220909.265872</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68">
+      <x:c s="5" t="d">
+        <x:v>2018-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>289636</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1850671.336657</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1242</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11677918.205314</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>239749.989083</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69">
+      <x:c s="5" t="d">
+        <x:v>2018-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>290961</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1861648.7368272</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1250</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9965039.1392</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>249841.158302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70">
+      <x:c s="5" t="d">
+        <x:v>2018-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>292344</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1823329.9736987</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1257</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9582410.2370723</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>232678.545565</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71">
+      <x:c s="5" t="d">
+        <x:v>2018-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>294325</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1797410.954044</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1262</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9899470.2614897</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>244234.117584</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72">
+      <x:c s="5" t="d">
+        <x:v>2018-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>295544</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1841693.5223249</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1269</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9118625.3766745</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>248893.243992</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73">
+      <x:c s="5" t="d">
+        <x:v>2018-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>251708</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1708998.4349563</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1153</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8089375.9939288</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>193123.81507</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74">
+      <x:c s="5" t="d">
+        <x:v>2018-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>253286</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1660699.0500817</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1164</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7487899.7835051</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>201141.470267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75">
+      <x:c s="5" t="d">
+        <x:v>2018-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>254623</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1785543.8431053</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1171</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7807277.0512382</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>218470.775023</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76">
+      <x:c s="5" t="d">
+        <x:v>2019-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>256086</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1793169.7606038</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1177</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7211591.0025488</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>213043.700407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77">
+      <x:c s="5" t="d">
+        <x:v>2019-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>257121</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1793947.0500036</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1182</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7445783.8993231</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>214071.587967</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78">
+      <x:c s="5" t="d">
+        <x:v>2019-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>258990</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1795408.0345148</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1182</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7645523.145516</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>219965.43274</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79">
+      <x:c s="5" t="d">
+        <x:v>2019-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>260957</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1779469.144928</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1189</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7494207.0084104</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>218194.514237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80">
+      <x:c s="5" t="d">
+        <x:v>2019-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>263187</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1798736.5231413</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1202</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7731554.1955074</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>234870.678578</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81">
+      <x:c s="5" t="d">
+        <x:v>2019-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>264741</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1813331.6888279</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1199</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7273835.6905754</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>239056.478293</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82">
+      <x:c s="5" t="d">
+        <x:v>2019-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>266976</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1776550.6648275</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1206</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7529449.5796019</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>226619.764505</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83">
+      <x:c s="5" t="d">
+        <x:v>2019-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>268473</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1778316.7619313</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1212</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7456897.3754125</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>241994.743869</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84">
+      <x:c s="5" t="d">
+        <x:v>2019-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>267651</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1814427.2924816</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>845</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7652361.3893491</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>231060.794755</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85">
+      <x:c s="5" t="d">
+        <x:v>2019-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>269072</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1797806.4419114</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>849</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>7847856.6195524</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>245430.364815</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86">
+      <x:c s="5" t="d">
+        <x:v>2019-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>270059</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1818502.5059227</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>871</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8902535.7474167</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>251087.158172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87">
+      <x:c s="5" t="d">
+        <x:v>2019-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>271268</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1920537.8013661</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>904</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9278218.1714601</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>260482.451184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88">
+      <x:c s="5" t="d">
+        <x:v>2020-01-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>272287</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1881697.9788568</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>940</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9315838.2638297</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>269668.694005</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89">
+      <x:c s="5" t="d">
+        <x:v>2020-02-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>272980</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1891749.0040296</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>952</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>8957913.2247899</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>271453.567191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90">
+      <x:c s="5" t="d">
+        <x:v>2020-03-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>274001</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1950526.3446082</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>976</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9471081.7858606</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>277053.032266</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91">
+      <x:c s="5" t="d">
+        <x:v>2020-04-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>273479</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2084821.8865653</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>980</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10060218.892857</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>315675.453425</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92">
+      <x:c s="5" t="d">
+        <x:v>2020-05-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>273428</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2245196.6330222</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>996</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9913636.5552208</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>334258.963059</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93">
+      <x:c s="5" t="d">
+        <x:v>2020-06-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>273610</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2431499.1068747</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1023</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10100467.704789</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>333684.230302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94">
+      <x:c s="5" t="d">
+        <x:v>2020-07-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>274554</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2511294.7391296</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1041</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10601530.358309</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>363729.574201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95">
+      <x:c s="5" t="d">
+        <x:v>2020-08-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>275434</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2650630.7207788</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1069</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9706498.2319925</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>643105.225402</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96">
+      <x:c s="5" t="d">
+        <x:v>2020-09-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>276716</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2902670.7428554</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1087</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>9695361.2502299</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>653104.447176</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97">
+      <x:c s="5" t="d">
+        <x:v>2020-10-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>278322</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2971644.5713023</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1118</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>10605656.5805</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>614504.491489</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98">
+      <x:c s="5" t="d">
+        <x:v>2020-11-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>280173</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>2964358.2595396</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1162</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>12235137.278829</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>557947.660252</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99">
+      <x:c s="5" t="d">
+        <x:v>2020-12-01T00:00:00.000</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>281814</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>3069117.4782835</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>1196</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>11959888.305183</x:v>
+      </x:c>
+      <x:c s="11" t="n">
+        <x:v>810705.783334</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100">
+      <x:c s="5" t="d">
         <x:v>2021-01-01T00:00:00.000</x:v>
       </x:c>
       <x:c s="11" t="n">
@@ -252,7 +2172,7 @@
         <x:v>772796.02315</x:v>
       </x:c>
     </x:row>
-    <x:row r="5">
+    <x:row r="101">
       <x:c s="5" t="d">
         <x:v>2021-02-01T00:00:00.000</x:v>
       </x:c>
@@ -272,7 +2192,7 @@
         <x:v>724013.31511</x:v>
       </x:c>
     </x:row>
-    <x:row r="6">
+    <x:row r="102">
       <x:c s="5" t="d">
         <x:v>2021-03-01T00:00:00.000</x:v>
       </x:c>
@@ -292,7 +2212,7 @@
         <x:v>710144.651533</x:v>
       </x:c>
     </x:row>
-    <x:row r="7">
+    <x:row r="103">
       <x:c s="5" t="d">
         <x:v>2021-04-01T00:00:00.000</x:v>
       </x:c>
@@ -312,7 +2232,7 @@
         <x:v>727810.71649</x:v>
       </x:c>
     </x:row>
-    <x:row r="8">
+    <x:row r="104">
       <x:c s="5" t="d">
         <x:v>2021-05-01T00:00:00.000</x:v>
       </x:c>
@@ -332,7 +2252,7 @@
         <x:v>947834.236078</x:v>
       </x:c>
     </x:row>
-    <x:row r="9">
+    <x:row r="105">
       <x:c s="5" t="d">
         <x:v>2021-06-01T00:00:00.000</x:v>
       </x:c>
@@ -352,7 +2272,7 @@
         <x:v>900561.543125</x:v>
       </x:c>
     </x:row>
-    <x:row r="10">
+    <x:row r="106">
       <x:c s="5" t="d">
         <x:v>2021-07-01T00:00:00.000</x:v>
       </x:c>
@@ -372,7 +2292,7 @@
         <x:v>898325.750939</x:v>
       </x:c>
     </x:row>
-    <x:row r="11">
+    <x:row r="107">
       <x:c s="5" t="d">
         <x:v>2021-08-01T00:00:00.000</x:v>
       </x:c>
@@ -392,7 +2312,7 @@
         <x:v>862482.510754</x:v>
       </x:c>
     </x:row>
-    <x:row r="12">
+    <x:row r="108">
       <x:c s="5" t="d">
         <x:v>2021-09-01T00:00:00.000</x:v>
       </x:c>
@@ -412,7 +2332,7 @@
         <x:v>857165.275531</x:v>
       </x:c>
     </x:row>
-    <x:row r="13">
+    <x:row r="109">
       <x:c s="5" t="d">
         <x:v>2021-10-01T00:00:00.000</x:v>
       </x:c>
@@ -432,7 +2352,7 @@
         <x:v>832409.080203</x:v>
       </x:c>
     </x:row>
-    <x:row r="14">
+    <x:row r="110">
       <x:c s="5" t="d">
         <x:v>2021-11-01T00:00:00.000</x:v>
       </x:c>
@@ -452,7 +2372,7 @@
         <x:v>792404.743876</x:v>
       </x:c>
     </x:row>
-    <x:row r="15">
+    <x:row r="111">
       <x:c s="5" t="d">
         <x:v>2021-12-01T00:00:00.000</x:v>
       </x:c>
@@ -472,7 +2392,7 @@
         <x:v>805583.865217</x:v>
       </x:c>
     </x:row>
-    <x:row r="16">
+    <x:row r="112">
       <x:c s="5" t="d">
         <x:v>2022-01-01T00:00:00.000</x:v>
       </x:c>
@@ -492,7 +2412,7 @@
         <x:v>743320.032114</x:v>
       </x:c>
     </x:row>
-    <x:row r="17">
+    <x:row r="113">
       <x:c s="5" t="d">
         <x:v>2022-02-01T00:00:00.000</x:v>
       </x:c>
@@ -512,7 +2432,7 @@
         <x:v>704051.981736</x:v>
       </x:c>
     </x:row>
-    <x:row r="18">
+    <x:row r="114">
       <x:c s="5" t="d">
         <x:v>2022-03-01T00:00:00.000</x:v>
       </x:c>
@@ -532,7 +2452,7 @@
         <x:v>677310.311823</x:v>
       </x:c>
     </x:row>
-    <x:row r="19">
+    <x:row r="115">
       <x:c s="5" t="d">
         <x:v>2022-04-01T00:00:00.000</x:v>
       </x:c>
@@ -552,7 +2472,7 @@
         <x:v>655086.970452</x:v>
       </x:c>
     </x:row>
-    <x:row r="20">
+    <x:row r="116">
       <x:c s="5" t="d">
         <x:v>2022-05-01T00:00:00.000</x:v>
       </x:c>
@@ -572,7 +2492,7 @@
         <x:v>624690.129712</x:v>
       </x:c>
     </x:row>
-    <x:row r="21">
+    <x:row r="117">
       <x:c s="5" t="d">
         <x:v>2022-06-01T00:00:00.000</x:v>
       </x:c>
@@ -592,7 +2512,7 @@
         <x:v>606875.653174</x:v>
       </x:c>
     </x:row>
-    <x:row r="22">
+    <x:row r="118">
       <x:c s="5" t="d">
         <x:v>2022-07-01T00:00:00.000</x:v>
       </x:c>
@@ -612,7 +2532,7 @@
         <x:v>586912.198642</x:v>
       </x:c>
     </x:row>
-    <x:row r="23">
+    <x:row r="119">
       <x:c s="5" t="d">
         <x:v>2022-08-01T00:00:00.000</x:v>
       </x:c>
@@ -632,7 +2552,7 @@
         <x:v>567896.192764</x:v>
       </x:c>
     </x:row>
-    <x:row r="24">
+    <x:row r="120">
       <x:c s="5" t="d">
         <x:v>2022-09-01T00:00:00.000</x:v>
       </x:c>
@@ -652,7 +2572,7 @@
         <x:v>562034.766499</x:v>
       </x:c>
     </x:row>
-    <x:row r="25">
+    <x:row r="121">
       <x:c s="5" t="d">
         <x:v>2022-10-01T00:00:00.000</x:v>
       </x:c>
@@ -672,7 +2592,7 @@
         <x:v>547182.869031</x:v>
       </x:c>
     </x:row>
-    <x:row r="26">
+    <x:row r="122">
       <x:c s="5" t="d">
         <x:v>2022-11-01T00:00:00.000</x:v>
       </x:c>
@@ -692,7 +2612,7 @@
         <x:v>517989.929707</x:v>
       </x:c>
     </x:row>
-    <x:row r="27">
+    <x:row r="123">
       <x:c s="5" t="d">
         <x:v>2022-12-01T00:00:00.000</x:v>
       </x:c>
@@ -712,7 +2632,7 @@
         <x:v>531547.891221</x:v>
       </x:c>
     </x:row>
-    <x:row r="28">
+    <x:row r="124">
       <x:c s="5" t="d">
         <x:v>2023-01-01T00:00:00.000</x:v>
       </x:c>
@@ -732,7 +2652,7 @@
         <x:v>510054.138518</x:v>
       </x:c>
     </x:row>
-    <x:row r="29">
+    <x:row r="125">
       <x:c s="5" t="d">
         <x:v>2023-02-01T00:00:00.000</x:v>
       </x:c>
@@ -752,7 +2672,7 @@
         <x:v>503618.514255</x:v>
       </x:c>
     </x:row>
-    <x:row r="30">
+    <x:row r="126">
       <x:c s="5" t="d">
         <x:v>2023-03-01T00:00:00.000</x:v>
       </x:c>
@@ -772,7 +2692,7 @@
         <x:v>507332.360045</x:v>
       </x:c>
     </x:row>
-    <x:row r="31">
+    <x:row r="127">
       <x:c s="5" t="d">
         <x:v>2023-04-01T00:00:00.000</x:v>
       </x:c>
@@ -792,7 +2712,7 @@
         <x:v>512815.588687</x:v>
       </x:c>
     </x:row>
-    <x:row r="32">
+    <x:row r="128">
       <x:c s="5" t="d">
         <x:v>2023-05-01T00:00:00.000</x:v>
       </x:c>
@@ -812,7 +2732,7 @@
         <x:v>493127.013086</x:v>
       </x:c>
     </x:row>
-    <x:row r="33">
+    <x:row r="129">
       <x:c s="5" t="d">
         <x:v>2023-06-01T00:00:00.000</x:v>
       </x:c>
@@ -832,7 +2752,7 @@
         <x:v>502434.973516</x:v>
       </x:c>
     </x:row>
-    <x:row r="34">
+    <x:row r="130">
       <x:c s="5" t="d">
         <x:v>2023-07-01T00:00:00.000</x:v>
       </x:c>
@@ -852,7 +2772,7 @@
         <x:v>469419.879777</x:v>
       </x:c>
     </x:row>
-    <x:row r="35">
+    <x:row r="131">
       <x:c s="5" t="d">
         <x:v>2023-08-01T00:00:00.000</x:v>
       </x:c>
@@ -872,7 +2792,7 @@
         <x:v>477472.746268</x:v>
       </x:c>
     </x:row>
-    <x:row r="36">
+    <x:row r="132">
       <x:c s="5" t="d">
         <x:v>2023-09-01T00:00:00.000</x:v>
       </x:c>
@@ -892,7 +2812,7 @@
         <x:v>485403.294246</x:v>
       </x:c>
     </x:row>
-    <x:row r="37">
+    <x:row r="133">
       <x:c s="5" t="d">
         <x:v>2023-10-01T00:00:00.000</x:v>
       </x:c>
@@ -912,7 +2832,7 @@
         <x:v>468365.485609</x:v>
       </x:c>
     </x:row>
-    <x:row r="38">
+    <x:row r="134">
       <x:c s="5" t="d">
         <x:v>2023-11-01T00:00:00.000</x:v>
       </x:c>
@@ -932,7 +2852,7 @@
         <x:v>471076.05879</x:v>
       </x:c>
     </x:row>
-    <x:row r="39">
+    <x:row r="135">
       <x:c s="5" t="d">
         <x:v>2023-12-01T00:00:00.000</x:v>
       </x:c>
@@ -952,7 +2872,7 @@
         <x:v>495253.353672</x:v>
       </x:c>
     </x:row>
-    <x:row r="40">
+    <x:row r="136">
       <x:c s="5" t="d">
         <x:v>2024-01-01T00:00:00.000</x:v>
       </x:c>
@@ -972,7 +2892,7 @@
         <x:v>483532.354408</x:v>
       </x:c>
     </x:row>
-    <x:row r="41">
+    <x:row r="137">
       <x:c s="5" t="d">
         <x:v>2024-02-01T00:00:00.000</x:v>
       </x:c>
@@ -992,7 +2912,7 @@
         <x:v>485757.926835</x:v>
       </x:c>
     </x:row>
-    <x:row r="42">
+    <x:row r="138">
       <x:c s="5" t="d">
         <x:v>2024-03-01T00:00:00.000</x:v>
       </x:c>
@@ -1012,7 +2932,7 @@
         <x:v>487200.201359</x:v>
       </x:c>
     </x:row>
-    <x:row r="43">
+    <x:row r="139">
       <x:c s="5" t="d">
         <x:v>2024-04-01T00:00:00.000</x:v>
       </x:c>
@@ -1032,7 +2952,7 @@
         <x:v>481450.857</x:v>
       </x:c>
     </x:row>
-    <x:row r="44">
+    <x:row r="140">
       <x:c s="5" t="d">
         <x:v>2024-05-01T00:00:00.000</x:v>
       </x:c>
@@ -1052,7 +2972,7 @@
         <x:v>490796.790802</x:v>
       </x:c>
     </x:row>
-    <x:row r="45">
+    <x:row r="141">
       <x:c s="5" t="d">
         <x:v>2024-06-01T00:00:00.000</x:v>
       </x:c>
@@ -1072,7 +2992,7 @@
         <x:v>497250.123679</x:v>
       </x:c>
     </x:row>
-    <x:row r="46">
+    <x:row r="142">
       <x:c s="5" t="d">
         <x:v>2024-07-01T00:00:00.000</x:v>
       </x:c>
@@ -1092,7 +3012,7 @@
         <x:v>473914.503481</x:v>
       </x:c>
     </x:row>
-    <x:row r="47">
+    <x:row r="143">
       <x:c s="5" t="d">
         <x:v>2024-08-01T00:00:00.000</x:v>
       </x:c>
